--- a/ergebnisse2018/frankentabelle_landesstimmen_2018.xlsx
+++ b/ergebnisse2018/frankentabelle_landesstimmen_2018.xlsx
@@ -1,262 +1,295 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jan.Eggers@hr.de/Nextcloud2/hr-DDJ/projekte/ltwhe23/ergebnisse2018/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79117C-3936-CB47-870E-A7FBECDCDA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28180" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
-    <t xml:space="preserve">wk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wk_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahlberechtigte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waehler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wahlbeteiligung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ungueltig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ungueltig_prozent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gueltig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRÜNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIE LINKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIE WÄHLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tierschutzpartei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die PARTEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIRATEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÖDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassel-Stadt I</t>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>wk_name</t>
+  </si>
+  <si>
+    <t>wahlberechtigte</t>
+  </si>
+  <si>
+    <t>waehler</t>
+  </si>
+  <si>
+    <t>wahlbeteiligung</t>
+  </si>
+  <si>
+    <t>ungueltig</t>
+  </si>
+  <si>
+    <t>ungueltig_prozent</t>
+  </si>
+  <si>
+    <t>gueltig</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>GRÜNE</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>AfD</t>
+  </si>
+  <si>
+    <t>FDP</t>
+  </si>
+  <si>
+    <t>DIE LINKE</t>
+  </si>
+  <si>
+    <t>FREIE WÄHLER</t>
+  </si>
+  <si>
+    <t>Tierschutzpartei</t>
+  </si>
+  <si>
+    <t>Die PARTEI</t>
+  </si>
+  <si>
+    <t>PIRATEN</t>
+  </si>
+  <si>
+    <t>ÖDP</t>
+  </si>
+  <si>
+    <t>NPD</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>Land Hessen</t>
+  </si>
+  <si>
+    <t>Kassel-Land I</t>
+  </si>
+  <si>
+    <t>Kassel-Land II</t>
+  </si>
+  <si>
+    <t>Kassel-Stadt I</t>
   </si>
   <si>
     <t xml:space="preserve">Kassel-Stadt II </t>
   </si>
   <si>
-    <t xml:space="preserve">Waldeck-Frankenberg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldeck-Frankenberg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwalm-Eder II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschwege-Witzenhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hersfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marburg-Biedenkopf II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulda II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahn-Dill II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gießen II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogelsberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limburg-Weilburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochtaunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wetterau III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheingau-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesbaden II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Taunus II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main-Kinzig III</t>
+    <t>Waldeck-Frankenberg I</t>
+  </si>
+  <si>
+    <t>Waldeck-Frankenberg II</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder I</t>
+  </si>
+  <si>
+    <t>Schwalm-Eder II</t>
+  </si>
+  <si>
+    <t>Eschwege-Witzenhausen</t>
+  </si>
+  <si>
+    <t>Rotenburg</t>
+  </si>
+  <si>
+    <t>Hersfeld</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf I</t>
+  </si>
+  <si>
+    <t>Marburg-Biedenkopf II</t>
+  </si>
+  <si>
+    <t>Fulda I</t>
+  </si>
+  <si>
+    <t>Fulda II</t>
+  </si>
+  <si>
+    <t>Lahn-Dill I</t>
+  </si>
+  <si>
+    <t>Lahn-Dill II</t>
+  </si>
+  <si>
+    <t>Gießen I</t>
+  </si>
+  <si>
+    <t>Gießen II</t>
+  </si>
+  <si>
+    <t>Vogelsberg</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg I</t>
+  </si>
+  <si>
+    <t>Limburg-Weilburg II</t>
+  </si>
+  <si>
+    <t>Hochtaunus I</t>
+  </si>
+  <si>
+    <t>Hochtaunus II</t>
+  </si>
+  <si>
+    <t>Wetterau I</t>
+  </si>
+  <si>
+    <t>Wetterau II</t>
+  </si>
+  <si>
+    <t>Wetterau III</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus I</t>
+  </si>
+  <si>
+    <t>Rheingau-Taunus II</t>
+  </si>
+  <si>
+    <t>Wiesbaden I</t>
+  </si>
+  <si>
+    <t>Wiesbaden II</t>
+  </si>
+  <si>
+    <t>Main-Taunus I</t>
+  </si>
+  <si>
+    <t>Main-Taunus II</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main II</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main IV</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main V</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main VI</t>
+  </si>
+  <si>
+    <t>Main-Kinzig I</t>
+  </si>
+  <si>
+    <t>Main-Kinzig II</t>
+  </si>
+  <si>
+    <t>Main-Kinzig III</t>
   </si>
   <si>
     <t xml:space="preserve">Offenbach-Stadt </t>
   </si>
   <si>
-    <t xml:space="preserve">Offenbach Land I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offenbach Land III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groß-Gerau II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Stadt II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darmstadt-Dieburg II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odenwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergstraße I</t>
+    <t>Offenbach Land I</t>
+  </si>
+  <si>
+    <t>Offenbach Land II</t>
+  </si>
+  <si>
+    <t>Offenbach Land III</t>
+  </si>
+  <si>
+    <t>Groß-Gerau I</t>
+  </si>
+  <si>
+    <t>Groß-Gerau II</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt I</t>
+  </si>
+  <si>
+    <t>Darmstadt-Stadt II</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg I</t>
+  </si>
+  <si>
+    <t>Darmstadt-Dieburg II</t>
+  </si>
+  <si>
+    <t>Odenwald</t>
+  </si>
+  <si>
+    <t>Bergstraße I</t>
   </si>
   <si>
     <t xml:space="preserve">Bergstraße II </t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfurt am Main I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankfurt am Main III</t>
+    <t>Frankfurt am Main I</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,16 +309,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 5" xfId="1" xr:uid="{6DD7DC42-72F1-A54C-8648-BC741FDAA239}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,14 +612,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,3648 +687,3652 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4372788</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2942846</v>
       </c>
-      <c r="E2" t="n">
-        <v>67.2990778423285</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>67.299077842328501</v>
+      </c>
+      <c r="F2">
         <v>61585</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.09270209858076</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>2.0927020985807601</v>
+      </c>
+      <c r="H2">
         <v>2881261</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>776910</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>570512</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>570446</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>378692</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>215946</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>181332</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>85465</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>28095</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>18334</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>11617</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>7539</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>6173</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>30200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>81483</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>55495</v>
       </c>
-      <c r="E3" t="n">
-        <v>68.1062307475179</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>68.106230747517898</v>
+      </c>
+      <c r="F3">
         <v>1489</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.68312460582034</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>54006</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>12607</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>8217</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>15894</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>7099</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3539</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2840</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>2342</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>504</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>240</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>194</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>63</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>76</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>391</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>82880</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>56427</v>
       </c>
-      <c r="E4" t="n">
-        <v>68.0827702702703</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>68.082770270270302</v>
+      </c>
+      <c r="F4">
         <v>1519</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.69197370053343</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>2.6919737005334299</v>
+      </c>
+      <c r="H4">
         <v>54908</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>12070</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>9371</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>17234</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>6964</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>3322</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>3130</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>1260</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>532</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>217</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>224</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>62</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>48</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>474</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>70982</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>48889</v>
       </c>
-      <c r="E5" t="n">
-        <v>68.8752077991603</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>68.875207799160293</v>
+      </c>
+      <c r="F5">
         <v>810</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.65681441633087</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>48079</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>9808</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>13563</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>9813</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>4323</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>2854</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>5295</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>844</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>319</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>309</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>266</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>132</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>36</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>517</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>68040</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>37614</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>55.2821869488536</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>908</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.41399478917424</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>2.4139947891742399</v>
+      </c>
+      <c r="H6">
         <v>36706</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>6665</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>7866</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>8296</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>4709</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1989</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>4584</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>832</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>316</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>341</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>314</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>122</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>51</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>621</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>69129</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>45148</v>
       </c>
-      <c r="E7" t="n">
-        <v>65.3097831590215</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>65.309783159021507</v>
+      </c>
+      <c r="F7">
         <v>1054</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.33454416585452</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>2.3345441658545201</v>
+      </c>
+      <c r="H7">
         <v>44094</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>13413</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>7241</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>9759</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>5550</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>3806</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>1916</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1403</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>330</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>157</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>155</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>39</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>54</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>271</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>69130</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>43961</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>63.5917835961232</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1097</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2.4953936443666</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>42864</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>12441</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>7136</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>9786</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>6022</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>3052</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1988</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1346</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>285</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>181</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>188</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>61</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>74</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>304</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>72623</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>51610</v>
       </c>
-      <c r="E9" t="n">
-        <v>71.0656403618688</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>71.065640361868802</v>
+      </c>
+      <c r="F9">
         <v>1485</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.87734935090099</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>2.8773493509009902</v>
+      </c>
+      <c r="H9">
         <v>50125</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>10618</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>8232</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>15209</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>6418</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>3444</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>2523</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>2140</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>493</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>216</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>223</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>62</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>86</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>461</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>71320</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>47915</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>67.1831183398766</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1424</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.97192945841595</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>2.9719294584159499</v>
+      </c>
+      <c r="H10">
         <v>46491</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>11074</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>6288</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>12132</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>7760</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>3294</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>2044</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>2528</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>409</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>213</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>196</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>32</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>128</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>393</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>63715</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>41010</v>
       </c>
-      <c r="E11" t="n">
-        <v>64.3647492741113</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>64.364749274111304</v>
+      </c>
+      <c r="F11">
         <v>1175</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.86515484028286</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>2.8651548402828602</v>
+      </c>
+      <c r="H11">
         <v>39835</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>9711</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>6771</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>10695</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>5046</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>2287</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>2379</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1868</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>326</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>184</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>128</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>76</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>52</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>312</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>64028</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>43798</v>
       </c>
-      <c r="E12" t="n">
-        <v>68.4044480539764</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>68.404448053976395</v>
+      </c>
+      <c r="F12">
         <v>1295</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.95675601625645</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>2.9567560162564499</v>
+      </c>
+      <c r="H12">
         <v>42503</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>11647</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>5377</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>11821</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>6294</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>2401</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1904</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1916</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>352</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>165</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>131</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>68</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>116</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>311</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>64379</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>43259</v>
       </c>
-      <c r="E13" t="n">
-        <v>67.1942714239115</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>67.194271423911502</v>
+      </c>
+      <c r="F13">
         <v>1041</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2.40643565500821</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>42218</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>11473</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>5331</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>10439</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>7234</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>3014</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1784</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>1734</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>330</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>196</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>110</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>73</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>145</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>355</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>90420</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>62026</v>
       </c>
-      <c r="E14" t="n">
-        <v>68.5976553859766</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>68.597655385976594</v>
+      </c>
+      <c r="F14">
         <v>1263</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.03624286589495</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>2.0362428658949501</v>
+      </c>
+      <c r="H14">
         <v>60763</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>17102</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>8983</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>14562</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>8984</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>3784</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>3661</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>1655</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>584</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>256</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>205</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>241</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>99</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>647</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>91034</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>62165</v>
       </c>
-      <c r="E15" t="n">
-        <v>68.2876727376585</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>68.287672737658497</v>
+      </c>
+      <c r="F15">
         <v>975</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.56840665969597</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>61190</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>15324</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>13141</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>12465</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>6752</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>3716</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>6530</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>1034</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>424</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>463</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>341</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>259</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>90</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>651</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>71757</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>46540</v>
       </c>
-      <c r="E16" t="n">
-        <v>64.8577839095837</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>64.857783909583702</v>
+      </c>
+      <c r="F16">
         <v>925</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.98753760206274</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>45615</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>16599</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>7530</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>5160</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>7693</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>3528</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>2153</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>1171</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>339</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>361</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>144</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>185</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>94</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>658</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>85109</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>61897</v>
       </c>
-      <c r="E17" t="n">
-        <v>72.7267386527864</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>72.726738652786395</v>
+      </c>
+      <c r="F17">
         <v>1244</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2.00979045834208</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>60653</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>22522</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>8917</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>7523</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>11016</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>4550</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>2124</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>2121</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>498</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>331</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>185</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>163</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>159</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>544</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>91206</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>54673</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>59.9445211937811</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1141</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.0869533407715</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>2.0869533407715002</v>
+      </c>
+      <c r="H18">
         <v>53532</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>17799</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>6874</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>10822</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>8567</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>3393</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>2201</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>1518</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>459</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>402</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>179</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>396</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>243</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>679</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>94231</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>59045</v>
       </c>
-      <c r="E19" t="n">
-        <v>62.6598465473146</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>62.659846547314601</v>
+      </c>
+      <c r="F19">
         <v>1222</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.06960792615801</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>2.0696079261580098</v>
+      </c>
+      <c r="H19">
         <v>57823</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>16155</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>9627</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>12416</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>8755</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>3786</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>2893</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>1997</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>535</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>609</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>168</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>119</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>212</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>551</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>90603</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>61587</v>
       </c>
-      <c r="E20" t="n">
-        <v>67.9745703784643</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>67.974570378464307</v>
+      </c>
+      <c r="F20">
         <v>985</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.59936350203777</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>1.5993635020377699</v>
+      </c>
+      <c r="H20">
         <v>60602</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>14402</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>13684</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>12356</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>6565</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>3674</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>5497</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>1666</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>557</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>656</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>300</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>346</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>105</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>794</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>96294</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>67743</v>
       </c>
-      <c r="E21" t="n">
-        <v>70.3501775811577</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>70.350177581157695</v>
+      </c>
+      <c r="F21">
         <v>1488</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.19653691156282</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G21">
+        <v>2.1965369115628199</v>
+      </c>
+      <c r="H21">
         <v>66255</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>18769</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>11158</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>14388</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>9433</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>4157</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>3225</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>2916</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>631</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>462</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>215</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>120</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>171</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>610</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>96207</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>66116</v>
       </c>
-      <c r="E22" t="n">
-        <v>68.7226501190142</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>68.722650119014205</v>
+      </c>
+      <c r="F22">
         <v>1579</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.38822675297961</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>2.3882267529796102</v>
+      </c>
+      <c r="H22">
         <v>64537</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>17895</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>9015</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>14759</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>10382</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>4426</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>3168</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>2775</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>563</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>310</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>186</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>167</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>281</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>610</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>64164</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>41090</v>
       </c>
-      <c r="E23" t="n">
-        <v>64.0390249984415</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>64.039024998441505</v>
+      </c>
+      <c r="F23">
         <v>1059</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.57726940861523</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>2.5772694086152299</v>
+      </c>
+      <c r="H23">
         <v>40031</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>13472</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>6282</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>6792</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>5641</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>3569</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>1564</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>1550</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>328</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>283</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>89</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>47</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>82</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>332</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>68051</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>44849</v>
       </c>
-      <c r="E24" t="n">
-        <v>65.9049830274353</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>65.904983027435307</v>
+      </c>
+      <c r="F24">
         <v>1183</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.63773997190573</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>43666</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>13102</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>6637</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>9497</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>6259</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>3174</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>1834</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>1761</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>443</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>263</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>147</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>48</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>94</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>407</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>85720</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>61255</v>
       </c>
-      <c r="E25" t="n">
-        <v>71.4594027064862</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>71.459402706486202</v>
+      </c>
+      <c r="F25">
         <v>952</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.55415884417599</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>1.5541588441759899</v>
+      </c>
+      <c r="H25">
         <v>60303</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>19602</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>13096</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>8687</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>6997</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>5890</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>2893</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>1243</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>562</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>287</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>288</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>114</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>80</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>564</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>77298</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>57196</v>
       </c>
-      <c r="E26" t="n">
-        <v>73.9941525007115</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26">
+        <v>73.994152500711493</v>
+      </c>
+      <c r="F26">
         <v>802</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1.40219595775928</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>56394</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>17917</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>12875</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>7878</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>5932</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>6572</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>2486</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>1101</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>545</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>227</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>212</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>95</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>64</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26">
         <v>490</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>80537</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>57511</v>
       </c>
-      <c r="E27" t="n">
-        <v>71.4094143064678</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>71.409414306467795</v>
+      </c>
+      <c r="F27">
         <v>1075</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1.86920762984473</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>56436</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>16481</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>12838</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>9702</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>6460</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>4279</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>2935</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>1812</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>573</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>406</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>165</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>110</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>139</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>536</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>89152</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>58400</v>
       </c>
-      <c r="E28" t="n">
-        <v>65.5061019382627</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>65.506101938262702</v>
+      </c>
+      <c r="F28">
         <v>1459</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.49828767123288</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="G28">
+        <v>2.4982876712328799</v>
+      </c>
+      <c r="H28">
         <v>56941</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>14845</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>8686</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>11532</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>10175</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>3829</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>2622</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>2421</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>787</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>371</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>202</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>187</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>726</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>558</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>77601</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>52903</v>
       </c>
-      <c r="E29" t="n">
-        <v>68.1730905529568</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>68.173090552956793</v>
+      </c>
+      <c r="F29">
         <v>1200</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.26830236470522</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G29">
+        <v>2.2683023647052201</v>
+      </c>
+      <c r="H29">
         <v>51703</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>14720</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>9570</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>10215</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>7020</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>3881</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>2403</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>2090</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>506</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>290</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>170</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>121</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>231</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29">
         <v>486</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>65564</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>46585</v>
       </c>
-      <c r="E30" t="n">
-        <v>71.0527118540662</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>71.052711854066203</v>
+      </c>
+      <c r="F30">
         <v>972</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.08650853278952</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G30">
+        <v>2.0865085327895199</v>
+      </c>
+      <c r="H30">
         <v>45613</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>14349</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>9391</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>7802</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>5769</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>3768</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>2106</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>1012</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>447</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>288</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>140</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>99</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>52</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30">
         <v>390</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>72079</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>52804</v>
       </c>
-      <c r="E31" t="n">
-        <v>73.258508025916</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>73.258508025916001</v>
+      </c>
+      <c r="F31">
         <v>901</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.7063101280206</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="G31">
+        <v>1.7063101280205999</v>
+      </c>
+      <c r="H31">
         <v>51903</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>15053</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>10622</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>8822</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>6837</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>4676</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>2791</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>1401</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>566</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>307</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>148</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>101</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>54</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>525</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>93006</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>60082</v>
       </c>
-      <c r="E32" t="n">
-        <v>64.6001333247317</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>64.600133324731701</v>
+      </c>
+      <c r="F32">
         <v>951</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.58283678972072</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G32">
+        <v>1.5828367897207201</v>
+      </c>
+      <c r="H32">
         <v>59131</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>14386</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>14437</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>9831</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>6891</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>5271</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>5341</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>991</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>474</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>396</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>230</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>160</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>67</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>656</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>93045</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>61356</v>
       </c>
-      <c r="E33" t="n">
-        <v>65.9422859906497</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>65.942285990649694</v>
+      </c>
+      <c r="F33">
         <v>1142</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.86126866158159</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33">
+        <v>1.8612686615815901</v>
+      </c>
+      <c r="H33">
         <v>60214</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>16096</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>12814</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>11291</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>7710</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>5208</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>3831</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>1357</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>465</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>322</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>225</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>174</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>84</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>637</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>81290</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>59790</v>
       </c>
-      <c r="E34" t="n">
-        <v>73.5514823471522</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E34">
+        <v>73.551482347152202</v>
+      </c>
+      <c r="F34">
         <v>933</v>
       </c>
-      <c r="G34" t="n">
-        <v>1.56046161565479</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>1.5604616156547899</v>
+      </c>
+      <c r="H34">
         <v>58857</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>18678</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>13352</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>8530</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>6631</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>5966</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>2574</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>1558</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>474</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>262</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>194</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>102</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>53</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>483</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>83170</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>59290</v>
       </c>
-      <c r="E35" t="n">
-        <v>71.2877239389203</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>71.287723938920294</v>
+      </c>
+      <c r="F35">
         <v>1033</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.74228369033564</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>58257</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>17384</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>12716</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>9434</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>6949</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>4872</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>3176</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>1811</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>560</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>303</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>184</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>163</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>120</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>585</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>65195</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>41809</v>
       </c>
-      <c r="E36" t="n">
-        <v>64.1291510085129</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>64.129151008512906</v>
+      </c>
+      <c r="F36">
         <v>642</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.53555454567198</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>1.5355545456719799</v>
+      </c>
+      <c r="H36">
         <v>41167</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>8427</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>10683</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>8048</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>3556</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>3013</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>5131</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>722</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>382</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>392</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>188</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>106</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36">
         <v>50</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>469</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>64818</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>42459</v>
       </c>
-      <c r="E37" t="n">
-        <v>65.504952328057</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37">
+        <v>65.504952328057001</v>
+      </c>
+      <c r="F37">
         <v>617</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.4531665842342</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>1.4531665842342001</v>
+      </c>
+      <c r="H37">
         <v>41842</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>10311</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>10905</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>7367</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>3719</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>3725</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>3783</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>736</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>284</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>318</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>157</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>100</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>44</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>393</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>71055</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>51389</v>
       </c>
-      <c r="E38" t="n">
-        <v>72.3228484976427</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>72.322848497642696</v>
+      </c>
+      <c r="F38">
         <v>561</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.09167331530094</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>1.0916733153009399</v>
+      </c>
+      <c r="H38">
         <v>50828</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>9582</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>16592</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>9092</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>2896</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>3733</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>6787</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>600</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>329</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>455</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>191</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>91</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38">
         <v>18</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38">
         <v>462</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>71985</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>46913</v>
       </c>
-      <c r="E39" t="n">
-        <v>65.170521636452</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>65.170521636451994</v>
+      </c>
+      <c r="F39">
         <v>770</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.64133609020954</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>46143</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>11841</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>10726</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>8724</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>4877</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>3639</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>3754</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>961</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>431</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>308</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>183</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>107</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39">
         <v>58</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>534</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>93461</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>66193</v>
       </c>
-      <c r="E40" t="n">
-        <v>70.8241940488546</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E40">
+        <v>70.824194048854594</v>
+      </c>
+      <c r="F40">
         <v>1422</v>
       </c>
-      <c r="G40" t="n">
-        <v>2.14826341153898</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G40">
+        <v>2.1482634115389798</v>
+      </c>
+      <c r="H40">
         <v>64771</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>17363</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>11743</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>12969</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>10024</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>4535</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>3108</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>2160</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>995</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>442</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>218</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>326</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40">
         <v>237</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40">
         <v>651</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>91437</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>56677</v>
       </c>
-      <c r="E41" t="n">
-        <v>61.9847545304417</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41">
+        <v>61.984754530441698</v>
+      </c>
+      <c r="F41">
         <v>1271</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2.24253224412019</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>55406</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>13970</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>10839</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>10496</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>8506</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>4188</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>3288</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>1504</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>780</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>439</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>206</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41">
         <v>189</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41">
         <v>131</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U41">
         <v>870</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>89841</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>61158</v>
       </c>
-      <c r="E42" t="n">
-        <v>68.0735966874812</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E42">
+        <v>68.073596687481199</v>
+      </c>
+      <c r="F42">
         <v>1380</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.2564505052487</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="G42">
+        <v>2.2564505052486998</v>
+      </c>
+      <c r="H42">
         <v>59778</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>16765</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>9734</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>10880</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>10521</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>4088</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>2778</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>2570</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42">
         <v>660</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42">
         <v>421</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>191</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>296</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42">
         <v>212</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U42">
         <v>662</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>66776</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>39018</v>
       </c>
-      <c r="E43" t="n">
-        <v>58.4311728764826</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>58.431172876482599</v>
+      </c>
+      <c r="F43">
         <v>779</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.99651442923779</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="G43">
+        <v>1.9965144292377901</v>
+      </c>
+      <c r="H43">
         <v>38239</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>8322</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>8855</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>6920</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>5135</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>2480</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>3976</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>879</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>446</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>325</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>278</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43">
         <v>67</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43">
         <v>61</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U43">
         <v>495</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>85153</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>57748</v>
       </c>
-      <c r="E44" t="n">
-        <v>67.8167533733398</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>67.816753373339793</v>
+      </c>
+      <c r="F44">
         <v>1228</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>2.1264805707557</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>56520</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>15390</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>13319</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>9503</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>6665</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>4701</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>3455</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>1468</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>599</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44">
         <v>311</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>267</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44">
         <v>119</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44">
         <v>59</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44">
         <v>664</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>67242</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>45116</v>
       </c>
-      <c r="E45" t="n">
-        <v>67.0949704054014</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45">
+        <v>67.094970405401398</v>
+      </c>
+      <c r="F45">
         <v>995</v>
       </c>
-      <c r="G45" t="n">
-        <v>2.20542601294441</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="G45">
+        <v>2.2054260129444101</v>
+      </c>
+      <c r="H45">
         <v>44121</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>12947</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>8806</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>7281</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>6270</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>3233</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>2434</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>1611</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>456</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45">
         <v>248</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>168</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45">
         <v>99</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45">
         <v>50</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U45">
         <v>518</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>84278</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>60413</v>
       </c>
-      <c r="E46" t="n">
-        <v>71.6830014950521</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46">
+        <v>71.683001495052096</v>
+      </c>
+      <c r="F46">
         <v>1329</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.19985764653303</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>59084</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>17573</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>11997</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>8985</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>7946</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>5424</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>2966</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>1958</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>690</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46">
         <v>381</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>270</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46">
         <v>176</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46">
         <v>88</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U46">
         <v>630</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>82267</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>51237</v>
       </c>
-      <c r="E47" t="n">
-        <v>62.2813521825276</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>62.281352182527598</v>
+      </c>
+      <c r="F47">
         <v>1386</v>
       </c>
-      <c r="G47" t="n">
-        <v>2.70507640962586</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="G47">
+        <v>2.7050764096258599</v>
+      </c>
+      <c r="H47">
         <v>49851</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>12259</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>9739</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>10712</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>7421</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>2879</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>3390</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>1494</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>620</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>263</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>232</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S47">
         <v>89</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47">
         <v>103</v>
       </c>
-      <c r="U47" t="n">
+      <c r="U47">
         <v>650</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>91858</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>62870</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>68.4425961810621</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1393</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.21568315571815</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G48">
+        <v>2.2156831557181502</v>
+      </c>
+      <c r="H48">
         <v>61477</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>15613</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>12025</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>13190</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>8015</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>3931</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>3840</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>2555</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>762</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>390</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>261</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48">
         <v>124</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T48">
         <v>89</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U48">
         <v>682</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>68007</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>47653</v>
       </c>
-      <c r="E49" t="n">
-        <v>70.0707280132928</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>70.070728013292793</v>
+      </c>
+      <c r="F49">
         <v>722</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>1.5151197196399</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>46931</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>8414</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>14634</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>8156</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>4114</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>3091</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>5550</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>723</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49">
         <v>370</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49">
         <v>555</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>404</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49">
         <v>278</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T49">
         <v>33</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U49">
         <v>609</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>90112</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>64856</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>71.97265625</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>1253</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1.93197236955717</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>63603</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>14871</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>16010</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>12707</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>6594</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>4471</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>5066</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>1302</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50">
         <v>653</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50">
         <v>441</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50">
         <v>381</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S50">
         <v>252</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T50">
         <v>67</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U50">
         <v>788</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>82544</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>57113</v>
       </c>
-      <c r="E51" t="n">
-        <v>69.1909769335142</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51">
+        <v>69.190976933514193</v>
+      </c>
+      <c r="F51">
         <v>1222</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>2.13961795037907</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>55891</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>13958</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>12228</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>11661</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>6776</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>4121</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>3376</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>1489</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51">
         <v>659</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51">
         <v>378</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>300</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51">
         <v>148</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T51">
         <v>85</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U51">
         <v>712</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>78307</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>55316</v>
       </c>
-      <c r="E52" t="n">
-        <v>70.6399172487773</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52">
+        <v>70.639917248777294</v>
+      </c>
+      <c r="F52">
         <v>1226</v>
       </c>
-      <c r="G52" t="n">
-        <v>2.21635693108685</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="G52">
+        <v>2.2163569310868501</v>
+      </c>
+      <c r="H52">
         <v>54090</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>15493</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>10852</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>10057</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>7014</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>3909</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>3056</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>1577</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52">
         <v>559</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52">
         <v>343</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R52">
         <v>290</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S52">
         <v>129</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T52">
         <v>69</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U52">
         <v>742</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>83663</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>55095</v>
       </c>
-      <c r="E53" t="n">
-        <v>65.853483618804</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53">
+        <v>65.853483618804006</v>
+      </c>
+      <c r="F53">
         <v>1548</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>2.809692349578</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>53547</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>14243</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>8455</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>11929</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>7827</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>4662</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>3263</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>1244</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53">
         <v>675</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53">
         <v>272</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53">
         <v>178</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S53">
         <v>95</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T53">
         <v>127</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U53">
         <v>577</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>94249</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>59623</v>
       </c>
-      <c r="E54" t="n">
-        <v>63.2611486594022</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54">
+        <v>63.261148659402203</v>
+      </c>
+      <c r="F54">
         <v>1232</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.066316689868</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="G54">
+        <v>2.0663166898680001</v>
+      </c>
+      <c r="H54">
         <v>58391</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>16934</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>11429</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>10134</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>8894</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>4672</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>2740</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>1395</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>786</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54">
         <v>290</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54">
         <v>219</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54">
         <v>94</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T54">
         <v>185</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U54">
         <v>619</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>89643</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>61918</v>
       </c>
-      <c r="E55" t="n">
-        <v>69.0717624354384</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="E55">
+        <v>69.071762435438401</v>
+      </c>
+      <c r="F55">
         <v>1328</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.14477211796247</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="G55">
+        <v>2.1447721179624701</v>
+      </c>
+      <c r="H55">
         <v>60590</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>17681</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>12824</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>10142</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>8139</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>5011</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>2853</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>1797</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55">
         <v>709</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55">
         <v>312</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55">
         <v>223</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S55">
         <v>143</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T55">
         <v>133</v>
       </c>
-      <c r="U55" t="n">
+      <c r="U55">
         <v>623</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
       </c>
-      <c r="C56" t="n">
-        <v>61266</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33679</v>
-      </c>
-      <c r="E56" t="n">
-        <v>54.971762478373</v>
-      </c>
-      <c r="F56" t="n">
-        <v>799</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2.37239823035126</v>
-      </c>
-      <c r="H56" t="n">
-        <v>32880</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7900</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6500</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6780</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4570</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1946</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2951</v>
-      </c>
-      <c r="O56" t="n">
-        <v>769</v>
-      </c>
-      <c r="P56" t="n">
-        <v>371</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>296</v>
-      </c>
-      <c r="R56" t="n">
-        <v>148</v>
-      </c>
-      <c r="S56" t="n">
-        <v>93</v>
-      </c>
-      <c r="T56" t="n">
-        <v>62</v>
-      </c>
-      <c r="U56" t="n">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="C56" s="1">
+        <v>64666</v>
+      </c>
+      <c r="D56" s="1">
+        <v>35467</v>
+      </c>
+      <c r="E56">
+        <f>D56/C56*100</f>
+        <v>54.846441715893981</v>
+      </c>
+      <c r="F56" s="1">
+        <v>827</v>
+      </c>
+      <c r="G56">
+        <f>F56/D56*100</f>
+        <v>2.3317450023965942</v>
+      </c>
+      <c r="H56" s="1">
+        <v>34639</v>
+      </c>
+      <c r="I56" s="1">
+        <v>8223</v>
+      </c>
+      <c r="J56" s="1">
+        <v>7010</v>
+      </c>
+      <c r="K56" s="1">
+        <v>7056</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4678</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2124</v>
+      </c>
+      <c r="N56" s="1">
+        <v>3236</v>
+      </c>
+      <c r="O56" s="1">
+        <v>792</v>
+      </c>
+      <c r="P56" s="1">
+        <v>381</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>315</v>
+      </c>
+      <c r="R56" s="1">
+        <v>155</v>
+      </c>
+      <c r="S56" s="1">
+        <v>97</v>
+      </c>
+      <c r="T56" s="1">
+        <v>63</v>
+      </c>
+      <c r="U56" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" t="n">
-        <v>76270</v>
-      </c>
-      <c r="D57" t="n">
-        <v>49826</v>
-      </c>
-      <c r="E57" t="n">
-        <v>65.3284384423758</v>
-      </c>
-      <c r="F57" t="n">
-        <v>595</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.19415566170273</v>
-      </c>
-      <c r="H57" t="n">
-        <v>49231</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11949</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12920</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8163</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3907</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5240</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4823</v>
-      </c>
-      <c r="O57" t="n">
-        <v>687</v>
-      </c>
-      <c r="P57" t="n">
-        <v>294</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>437</v>
-      </c>
-      <c r="R57" t="n">
-        <v>190</v>
-      </c>
-      <c r="S57" t="n">
-        <v>103</v>
-      </c>
-      <c r="T57" t="n">
-        <v>39</v>
-      </c>
-      <c r="U57" t="n">
-        <v>479</v>
+      <c r="C57" s="1">
+        <v>80984</v>
+      </c>
+      <c r="D57" s="1">
+        <v>52776</v>
+      </c>
+      <c r="E57">
+        <f>D57/C57*100</f>
+        <v>65.168428331522279</v>
+      </c>
+      <c r="F57" s="1">
+        <v>673</v>
+      </c>
+      <c r="G57">
+        <f>F57/D57*100</f>
+        <v>1.275200848870699</v>
+      </c>
+      <c r="H57" s="1">
+        <v>52104</v>
+      </c>
+      <c r="I57" s="1">
+        <v>12551</v>
+      </c>
+      <c r="J57" s="1">
+        <v>13469</v>
+      </c>
+      <c r="K57" s="1">
+        <v>8895</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4268</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5345</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5107</v>
+      </c>
+      <c r="O57" s="1">
+        <v>754</v>
+      </c>
+      <c r="P57" s="1">
+        <v>353</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>461</v>
+      </c>
+      <c r="R57" s="1">
+        <v>211</v>
+      </c>
+      <c r="S57" s="1">
+        <v>107</v>
+      </c>
+      <c r="T57" s="1">
+        <v>45</v>
+      </c>
+      <c r="U57" s="1">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>